--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06135</v>
+        <v>0.053</v>
       </c>
       <c r="E2">
-        <v>0.277</v>
+        <v>0.171</v>
       </c>
       <c r="G2">
-        <v>0.006640731339440093</v>
+        <v>0.0372214524092976</v>
       </c>
       <c r="H2">
-        <v>0.006640731339440093</v>
+        <v>0.0372214524092976</v>
       </c>
       <c r="I2">
-        <v>-0.004279644263193116</v>
+        <v>0.06481693859963694</v>
       </c>
       <c r="J2">
-        <v>-0.0041614198579753</v>
+        <v>0.05227749266299986</v>
       </c>
       <c r="K2">
-        <v>-47.819</v>
+        <v>278.25</v>
       </c>
       <c r="L2">
-        <v>-0.008795754699628443</v>
+        <v>0.05430433849216418</v>
       </c>
       <c r="M2">
-        <v>16.431</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.002720634500115905</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.3436081892134926</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>16.431</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002720634500115905</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.3436081892134926</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>1482.09</v>
+        <v>1468.13</v>
       </c>
       <c r="V2">
-        <v>0.2454035169056528</v>
+        <v>0.1810963500228201</v>
       </c>
       <c r="W2">
-        <v>-0.03871951219512196</v>
+        <v>0.06193247962747381</v>
       </c>
       <c r="X2">
-        <v>0.05081562307218328</v>
+        <v>0.04507801492373591</v>
       </c>
       <c r="Y2">
-        <v>-0.08953513526730524</v>
+        <v>0.0168544647037379</v>
       </c>
       <c r="Z2">
-        <v>6.321675172477949</v>
+        <v>5.185233841589785</v>
       </c>
       <c r="AA2">
-        <v>1.691188905800778e-05</v>
+        <v>0.06616257088846882</v>
       </c>
       <c r="AB2">
-        <v>0.05076703281793876</v>
+        <v>0.04502143799438807</v>
       </c>
       <c r="AC2">
-        <v>-0.05074650163121427</v>
+        <v>0.02113957592833914</v>
       </c>
       <c r="AD2">
-        <v>32.974</v>
+        <v>143.847</v>
       </c>
       <c r="AE2">
-        <v>3.733570006378486</v>
+        <v>0.01744154660155876</v>
       </c>
       <c r="AF2">
-        <v>36.70757000637849</v>
+        <v>143.8644415466016</v>
       </c>
       <c r="AG2">
-        <v>-1445.382429993621</v>
+        <v>-1324.265558453399</v>
       </c>
       <c r="AH2">
-        <v>0.006041296929563732</v>
+        <v>0.01743649846821154</v>
       </c>
       <c r="AI2">
-        <v>0.01383568854175417</v>
+        <v>0.0472311625127028</v>
       </c>
       <c r="AJ2">
-        <v>-0.3146227475119592</v>
+        <v>-0.1952435399351162</v>
       </c>
       <c r="AK2">
-        <v>-1.234296108798562</v>
+        <v>-0.8392930991893844</v>
       </c>
       <c r="AL2">
-        <v>0.016</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.016</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN2">
-        <v>28.84864391951007</v>
+        <v>0.3984504841890664</v>
       </c>
       <c r="AO2">
-        <v>-1407.5</v>
+        <v>3817.252873563219</v>
       </c>
       <c r="AP2">
-        <v>-1264.551557299757</v>
+        <v>-3.668163068820768</v>
       </c>
       <c r="AQ2">
-        <v>-1407.5</v>
+        <v>3817.252873563219</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chubb Arabia Cooperative Insurance Company (SASE:8240)</t>
+          <t>The Company for Cooperative Insurance (SASE:8010)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +722,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0364</v>
+        <v>0.0513</v>
       </c>
       <c r="E3">
-        <v>0.277</v>
+        <v>-0.0522</v>
       </c>
       <c r="G3">
-        <v>0.3562874251497006</v>
+        <v>0.0588805551303638</v>
       </c>
       <c r="H3">
-        <v>0.3562874251497006</v>
+        <v>0.0588805551303638</v>
       </c>
       <c r="I3">
-        <v>0.3263473053892216</v>
+        <v>0.07964692076126333</v>
       </c>
       <c r="J3">
-        <v>0.3263473053892216</v>
+        <v>0.06847288126945252</v>
       </c>
       <c r="K3">
-        <v>11.2</v>
+        <v>134.3</v>
       </c>
       <c r="L3">
-        <v>0.3353293413173652</v>
+        <v>0.06852390428083066</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>32.5</v>
+        <v>143.6</v>
       </c>
       <c r="V3">
-        <v>0.2627324171382376</v>
+        <v>0.0540744087965055</v>
       </c>
       <c r="W3">
-        <v>0.1515561569688768</v>
+        <v>0.2162640901771337</v>
       </c>
       <c r="X3">
-        <v>0.05088180821609609</v>
+        <v>0.04614822044678303</v>
       </c>
       <c r="Y3">
-        <v>0.1006743487527808</v>
+        <v>0.1701158697303506</v>
       </c>
       <c r="Z3">
-        <v>2.197368421052631</v>
+        <v>9.607352941176471</v>
       </c>
       <c r="AA3">
-        <v>0.7171052631578945</v>
+        <v>0.657843137254902</v>
       </c>
       <c r="AB3">
-        <v>0.0507940005565676</v>
+        <v>0.04515112168850588</v>
       </c>
       <c r="AC3">
-        <v>0.6663112626013269</v>
+        <v>0.6126920155663961</v>
       </c>
       <c r="AD3">
-        <v>0.58</v>
+        <v>106.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.58</v>
+        <v>106.7</v>
       </c>
       <c r="AG3">
-        <v>-31.92</v>
+        <v>-36.89999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.004666881235918892</v>
+        <v>0.03862723093074612</v>
       </c>
       <c r="AI3">
-        <v>0.00696445725264169</v>
+        <v>0.1289425981873112</v>
       </c>
       <c r="AJ3">
-        <v>-0.3477881891479626</v>
+        <v>-0.0140909611639363</v>
       </c>
       <c r="AK3">
-        <v>-0.6285939346199291</v>
+        <v>-0.05395525661646439</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.05272727272727273</v>
+        <v>0.6451027811366384</v>
       </c>
       <c r="AP3">
-        <v>-2.901818181818182</v>
+        <v>-0.2230955259975816</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al-Etihad Cooperative Insurance Co. (SASE:8170)</t>
+          <t>AXA Cooperative Insurance Co. (SASE:8250)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,25 +847,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0347</v>
+        <v>0.0484</v>
+      </c>
+      <c r="E4">
+        <v>0.5570000000000001</v>
       </c>
       <c r="G4">
-        <v>0.1068090787716956</v>
+        <v>0.08361486486486487</v>
       </c>
       <c r="H4">
-        <v>0.1068090787716956</v>
+        <v>0.08361486486486487</v>
       </c>
       <c r="I4">
-        <v>0.06364040943480197</v>
+        <v>0.115990990990991</v>
       </c>
       <c r="J4">
-        <v>0.06364040943480197</v>
+        <v>0.09605855855855856</v>
       </c>
       <c r="K4">
-        <v>15.4</v>
+        <v>34.1</v>
       </c>
       <c r="L4">
-        <v>0.06853582554517135</v>
+        <v>0.09600225225225226</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -892,73 +892,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>71.40000000000001</v>
+        <v>127</v>
       </c>
       <c r="V4">
-        <v>0.4556477345245693</v>
+        <v>0.2669188734762505</v>
       </c>
       <c r="W4">
-        <v>0.1336805555555556</v>
+        <v>0.1872597473915431</v>
       </c>
       <c r="X4">
-        <v>0.05081562307218328</v>
+        <v>0.04534703151834274</v>
       </c>
       <c r="Y4">
-        <v>0.08286493248337228</v>
+        <v>0.1419127158732004</v>
       </c>
       <c r="Z4">
-        <v>8.77734375</v>
+        <v>5.722571290478491</v>
       </c>
       <c r="AA4">
-        <v>0.5585937500000001</v>
+        <v>0.5497019494119543</v>
       </c>
       <c r="AB4">
-        <v>0.05076703281793876</v>
+        <v>0.04504734456096558</v>
       </c>
       <c r="AC4">
-        <v>0.5078267171820614</v>
+        <v>0.5046546048509887</v>
       </c>
       <c r="AD4">
-        <v>0.324</v>
+        <v>5.77</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.324</v>
+        <v>5.77</v>
       </c>
       <c r="AG4">
-        <v>-71.07600000000001</v>
+        <v>-121.23</v>
       </c>
       <c r="AH4">
-        <v>0.002063378846545751</v>
+        <v>0.01198164337479494</v>
       </c>
       <c r="AI4">
-        <v>0.002591502431533146</v>
+        <v>0.02547798825451494</v>
       </c>
       <c r="AJ4">
-        <v>-0.8300943660655894</v>
+        <v>-0.3419070987393181</v>
       </c>
       <c r="AK4">
-        <v>-1.325451290466955</v>
+        <v>-1.218759424952247</v>
       </c>
       <c r="AL4">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.02174496644295302</v>
-      </c>
-      <c r="AO4">
-        <v>893.75</v>
+        <v>0.1357647058823529</v>
       </c>
       <c r="AP4">
-        <v>-4.770201342281879</v>
-      </c>
-      <c r="AQ4">
-        <v>893.75</v>
+        <v>-2.852470588235294</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wataniya Insurance Company (SASE:8300)</t>
+          <t>Al Rajhi Company for Cooperative Insurance (SASE:8230)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,25 +972,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.124</v>
+        <v>0.211</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
       </c>
       <c r="G5">
-        <v>0.04348754448398576</v>
+        <v>0.04564125969876769</v>
       </c>
       <c r="H5">
-        <v>0.04348754448398576</v>
+        <v>0.04564125969876769</v>
       </c>
       <c r="I5">
-        <v>-0.04113879003558719</v>
+        <v>0.07698159135858818</v>
       </c>
       <c r="J5">
-        <v>-0.04113879003558719</v>
+        <v>0.06663623916020082</v>
       </c>
       <c r="K5">
-        <v>-4.85</v>
+        <v>43.8</v>
       </c>
       <c r="L5">
-        <v>-0.03451957295373665</v>
+        <v>0.06663623916020082</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1005,7 +1002,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1014,61 +1011,61 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>88.7</v>
+        <v>190.8</v>
       </c>
       <c r="V5">
-        <v>0.9088114754098362</v>
+        <v>0.2211917458845351</v>
       </c>
       <c r="W5">
-        <v>-0.07260479041916168</v>
+        <v>0.1883870967741935</v>
       </c>
       <c r="X5">
-        <v>0.05076341352027228</v>
+        <v>0.04535164365292188</v>
       </c>
       <c r="Y5">
-        <v>-0.123368203939434</v>
+        <v>0.1430354531212717</v>
       </c>
       <c r="Z5">
-        <v>-6.82038834951456</v>
+        <v>7.271017699115045</v>
       </c>
       <c r="AA5">
-        <v>0.2805825242718445</v>
+        <v>0.4845132743362833</v>
       </c>
       <c r="AB5">
-        <v>0.05076341352027228</v>
+        <v>0.0450479584255634</v>
       </c>
       <c r="AC5">
-        <v>0.2298191107515723</v>
+        <v>0.4394653159107199</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="AG5">
-        <v>-88.7</v>
+        <v>-180.2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01213925790196977</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.03605442176870748</v>
       </c>
       <c r="AJ5">
-        <v>-9.96629213483147</v>
+        <v>-0.2640679953106683</v>
       </c>
       <c r="AK5">
-        <v>3.017006802721088</v>
+        <v>-1.746124031007753</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1077,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>0.2058252427184466</v>
       </c>
       <c r="AP5">
-        <v>18.06517311608961</v>
+        <v>-3.499029126213593</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Al Rajhi Company for Cooperative Insurance (SASE:8230)</t>
+          <t>Al-Etihad Cooperative Insurance Co. (SASE:8170)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,28 +1097,28 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.331</v>
+        <v>0.053</v>
       </c>
       <c r="E6">
-        <v>0.7509999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="G6">
-        <v>0.06795212765957447</v>
+        <v>0.08646800195407914</v>
       </c>
       <c r="H6">
-        <v>0.06795212765957447</v>
+        <v>0.08646800195407914</v>
       </c>
       <c r="I6">
-        <v>0.04587765957446809</v>
+        <v>0.1275036638983879</v>
       </c>
       <c r="J6">
-        <v>0.0449561170212766</v>
+        <v>0.1092818759159746</v>
       </c>
       <c r="K6">
-        <v>33.8</v>
+        <v>22.3</v>
       </c>
       <c r="L6">
-        <v>0.04494680851063829</v>
+        <v>0.1089399120664387</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1145,67 +1142,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>144.3</v>
+        <v>107.7</v>
       </c>
       <c r="V6">
-        <v>0.2131147540983607</v>
+        <v>0.4109118657001145</v>
       </c>
       <c r="W6">
-        <v>0.1651196873473376</v>
+        <v>0.1788291900561347</v>
       </c>
       <c r="X6">
-        <v>0.05084545695225526</v>
+        <v>0.04501876811119895</v>
       </c>
       <c r="Y6">
-        <v>0.1142742303950823</v>
+        <v>0.1338104219449358</v>
       </c>
       <c r="Z6">
-        <v>4.892648015614834</v>
+        <v>3.904700137341676</v>
       </c>
       <c r="AA6">
-        <v>0.2199544567338972</v>
+        <v>0.426712955898062</v>
       </c>
       <c r="AB6">
-        <v>0.05078463969406102</v>
+        <v>0.04500314454857204</v>
       </c>
       <c r="AC6">
-        <v>0.1691698170398362</v>
+        <v>0.38170981134949</v>
       </c>
       <c r="AD6">
-        <v>2.2</v>
+        <v>0.166</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.2</v>
+        <v>0.166</v>
       </c>
       <c r="AG6">
-        <v>-142.1</v>
+        <v>-107.534</v>
       </c>
       <c r="AH6">
-        <v>0.003238627999411158</v>
+        <v>0.0006329451777965882</v>
       </c>
       <c r="AI6">
-        <v>0.009373668512995315</v>
+        <v>0.001127977929684846</v>
       </c>
       <c r="AJ6">
-        <v>-0.265607476635514</v>
+        <v>-0.6957157460243519</v>
       </c>
       <c r="AK6">
-        <v>-1.571902654867257</v>
+        <v>-2.724725079815538</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AN6">
-        <v>0.06043956043956045</v>
+        <v>0.006194029850746269</v>
+      </c>
+      <c r="AO6">
+        <v>1740</v>
       </c>
       <c r="AP6">
-        <v>-3.903846153846155</v>
+        <v>-4.012462686567164</v>
+      </c>
+      <c r="AQ6">
+        <v>1740</v>
       </c>
     </row>
     <row r="7">
@@ -1216,7 +1219,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AXA Cooperative Insurance Co. (SASE:8250)</t>
+          <t>The Mediterranean and Gulf Cooperative Insurance and Reinsurance Company (SASE:8030)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1225,28 +1228,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.111</v>
-      </c>
-      <c r="E7">
-        <v>0.388</v>
+        <v>-0.125</v>
       </c>
       <c r="G7">
-        <v>0.06007972665148065</v>
+        <v>0.02847428814279643</v>
       </c>
       <c r="H7">
-        <v>0.06007972665148065</v>
+        <v>0.02847428814279643</v>
       </c>
       <c r="I7">
-        <v>0.07203872437357632</v>
+        <v>0.02592435189120272</v>
       </c>
       <c r="J7">
-        <v>0.0715489749430524</v>
+        <v>0.01559711007224819</v>
       </c>
       <c r="K7">
-        <v>25.1</v>
+        <v>7.3</v>
       </c>
       <c r="L7">
-        <v>0.07146924829157177</v>
+        <v>0.01551211219719507</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1270,55 +1270,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>113.1</v>
+        <v>89.3</v>
       </c>
       <c r="V7">
-        <v>0.3190409026798307</v>
+        <v>0.1765519968366943</v>
       </c>
       <c r="W7">
-        <v>0.1614147909967846</v>
+        <v>0.03931071620893915</v>
       </c>
       <c r="X7">
-        <v>0.0512171431544029</v>
+        <v>0.04527623387663945</v>
       </c>
       <c r="Y7">
-        <v>0.1101976478423817</v>
+        <v>-0.005965517667700301</v>
       </c>
       <c r="Z7">
-        <v>2.971235194585448</v>
+        <v>22.08352885969029</v>
       </c>
       <c r="AA7">
-        <v>0.2125888324873096</v>
+        <v>0.344439230408259</v>
       </c>
       <c r="AB7">
-        <v>0.05079437587497872</v>
+        <v>0.04503789691399621</v>
       </c>
       <c r="AC7">
-        <v>0.1617944566123309</v>
+        <v>0.2994013334942627</v>
       </c>
       <c r="AD7">
-        <v>6.37</v>
+        <v>4.88</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>6.37</v>
+        <v>4.88</v>
       </c>
       <c r="AG7">
-        <v>-106.73</v>
+        <v>-84.42</v>
       </c>
       <c r="AH7">
-        <v>0.01765178596170366</v>
+        <v>0.009555886269288008</v>
       </c>
       <c r="AI7">
-        <v>0.03379848251711148</v>
+        <v>0.02363425029058504</v>
       </c>
       <c r="AJ7">
-        <v>-0.4307624006134721</v>
+        <v>-0.2003417343015805</v>
       </c>
       <c r="AK7">
-        <v>-1.416080668701075</v>
+        <v>-0.7204301075268817</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.2412878787878788</v>
+        <v>0.3412587412587412</v>
       </c>
       <c r="AP7">
-        <v>-4.04280303030303</v>
+        <v>-5.903496503496504</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Mediterranean and Gulf Cooperative Insurance and Reinsurance Company (SASE:8030)</t>
+          <t>Walaa Cooperative Insurance Company (SASE:8060)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0718</v>
+        <v>0.147</v>
       </c>
       <c r="G8">
-        <v>-0.08922186276179125</v>
+        <v>0.04065827686350436</v>
       </c>
       <c r="H8">
-        <v>-0.08922186276179125</v>
+        <v>0.04065827686350436</v>
       </c>
       <c r="I8">
-        <v>-0.02493906691856921</v>
+        <v>0.07502420135527589</v>
       </c>
       <c r="J8">
-        <v>-0.02493906691856921</v>
+        <v>0.06369796708615681</v>
       </c>
       <c r="K8">
-        <v>-21.8</v>
+        <v>13.1</v>
       </c>
       <c r="L8">
-        <v>-0.03711901924059255</v>
+        <v>0.06340755082284608</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1377,7 +1377,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1386,61 +1386,61 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>42.1</v>
+        <v>190.4</v>
       </c>
       <c r="V8">
-        <v>0.1235328638497653</v>
+        <v>0.5041037860736034</v>
       </c>
       <c r="W8">
-        <v>-0.2173479561316052</v>
+        <v>0.07714958775029446</v>
       </c>
       <c r="X8">
-        <v>0.05146311141984732</v>
+        <v>0.0450623828814075</v>
       </c>
       <c r="Y8">
-        <v>-0.2688110675514525</v>
+        <v>0.03208720486888696</v>
       </c>
       <c r="Z8">
-        <v>-5.003986233814198</v>
+        <v>4.408877507469056</v>
       </c>
       <c r="AA8">
-        <v>0.1247947475446914</v>
+        <v>0.280836534357661</v>
       </c>
       <c r="AB8">
-        <v>0.05094012984985804</v>
+        <v>0.04502045815095002</v>
       </c>
       <c r="AC8">
-        <v>0.07385461769483337</v>
+        <v>0.235816076206711</v>
       </c>
       <c r="AD8">
-        <v>5.71</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="AE8">
-        <v>3.733570006378486</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>9.443570006378486</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="AG8">
-        <v>-32.65642999362151</v>
+        <v>-189.584</v>
       </c>
       <c r="AH8">
-        <v>0.02696286474640064</v>
+        <v>0.002155787337919665</v>
       </c>
       <c r="AI8">
-        <v>0.04839293452543588</v>
+        <v>0.003461793005141781</v>
       </c>
       <c r="AJ8">
-        <v>-0.1059779699214413</v>
+        <v>-1.007803695592081</v>
       </c>
       <c r="AK8">
-        <v>-0.2133799544290588</v>
+        <v>-4.183599611616206</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>-0.4758333333333333</v>
+        <v>0.0408</v>
       </c>
       <c r="AP8">
-        <v>2.721369166135126</v>
+        <v>-9.479200000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Al-Ahlia Insurance Co. (SASE:8140)</t>
+          <t>Chubb Arabia Cooperative Insurance Company (SASE:8240)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1472,25 +1472,28 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.0409</v>
+        <v>0.0232</v>
+      </c>
+      <c r="E9">
+        <v>0.169</v>
       </c>
       <c r="G9">
-        <v>0.1048728813559322</v>
+        <v>0.2671826625386997</v>
       </c>
       <c r="H9">
-        <v>0.1048728813559322</v>
+        <v>0.2671826625386997</v>
       </c>
       <c r="I9">
-        <v>-0.02669491525423729</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="J9">
-        <v>-0.02669491525423729</v>
+        <v>0.289938080495356</v>
       </c>
       <c r="K9">
-        <v>-1.27</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="L9">
-        <v>-0.02690677966101695</v>
+        <v>0.2900928792569659</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1499,7 +1502,7 @@
         <v>-0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P9">
         <v>-0</v>
@@ -1508,61 +1511,61 @@
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>40.8</v>
+        <v>33.2</v>
       </c>
       <c r="V9">
-        <v>1.105691056910569</v>
+        <v>0.1919075144508671</v>
       </c>
       <c r="W9">
-        <v>-0.03871951219512196</v>
+        <v>0.1133010882708585</v>
       </c>
       <c r="X9">
-        <v>0.05076341352027228</v>
+        <v>0.04504938090859201</v>
       </c>
       <c r="Y9">
-        <v>-0.08948292571539423</v>
+        <v>0.0682517073622665</v>
       </c>
       <c r="Z9">
-        <v>-4.370370370370369</v>
+        <v>0.8265097236438076</v>
       </c>
       <c r="AA9">
-        <v>0.1166666666666666</v>
+        <v>0.2396366427840327</v>
       </c>
       <c r="AB9">
-        <v>0.05076341352027228</v>
+        <v>0.04501629752702341</v>
       </c>
       <c r="AC9">
-        <v>0.06590325314639435</v>
+        <v>0.1946203452570093</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.295</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.295</v>
       </c>
       <c r="AG9">
-        <v>-40.8</v>
+        <v>-32.905</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.001702299547015205</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.003203214072425213</v>
       </c>
       <c r="AJ9">
-        <v>10.46153846153847</v>
+        <v>-0.2348763339162711</v>
       </c>
       <c r="AK9">
-        <v>2.701986754966887</v>
+        <v>-0.5587061720010188</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1571,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>-0</v>
+        <v>0.02864077669902912</v>
       </c>
       <c r="AP9">
-        <v>82.42424242424242</v>
+        <v>-3.194660194174757</v>
       </c>
     </row>
     <row r="10">
@@ -1585,7 +1588,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aljazira Takaful Taawuni Company (SASE:8012)</t>
+          <t>Salama Cooperative Insurance Company (SASE:8050)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1593,23 +1596,29 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0532</v>
+      </c>
+      <c r="E10">
+        <v>0.383</v>
+      </c>
       <c r="G10">
-        <v>0.5629139072847682</v>
+        <v>-0.113126079447323</v>
       </c>
       <c r="H10">
-        <v>0.5629139072847682</v>
+        <v>-0.113126079447323</v>
       </c>
       <c r="I10">
-        <v>0.6503311258278146</v>
+        <v>0.04550949913644214</v>
       </c>
       <c r="J10">
-        <v>0.6503311258278146</v>
+        <v>0.03169257340241795</v>
       </c>
       <c r="K10">
-        <v>9.83</v>
+        <v>3.67</v>
       </c>
       <c r="L10">
-        <v>0.6509933774834438</v>
+        <v>0.03169257340241796</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1633,55 +1642,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>5.29</v>
+        <v>49.6</v>
       </c>
       <c r="V10">
-        <v>0.03196374622356495</v>
+        <v>0.3006060606060606</v>
       </c>
       <c r="W10">
-        <v>0.09506769825918762</v>
+        <v>0.07057692307692308</v>
       </c>
       <c r="X10">
-        <v>0.05076341352027228</v>
+        <v>0.04608944194167777</v>
       </c>
       <c r="Y10">
-        <v>0.04430428473891534</v>
+        <v>0.02448748113524531</v>
       </c>
       <c r="Z10">
-        <v>0.1644880174291939</v>
+        <v>3.626683369871594</v>
       </c>
       <c r="AA10">
-        <v>0.1069716775599128</v>
+        <v>0.114938928906984</v>
       </c>
       <c r="AB10">
-        <v>0.05076341352027228</v>
+        <v>0.0453375875399324</v>
       </c>
       <c r="AC10">
-        <v>0.05620826403964056</v>
+        <v>0.06960134136705158</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="AG10">
-        <v>-5.29</v>
+        <v>-43.31</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.03672134975772082</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.1022930557814279</v>
       </c>
       <c r="AJ10">
-        <v>-0.03301916234941639</v>
+        <v>-0.3559043471115129</v>
       </c>
       <c r="AK10">
-        <v>-0.04911335994800854</v>
+        <v>-3.64255677039529</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1690,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="AP10">
-        <v>-0.5376016260162602</v>
+        <v>-6.503003003003003</v>
       </c>
     </row>
     <row r="11">
@@ -1704,7 +1713,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Allied Cooperative Insurance Group (SASE:8150)</t>
+          <t>Aljazira Takaful Ta’awuni Company (SASE:8012)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1713,28 +1722,28 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.154</v>
+        <v>0.345</v>
       </c>
       <c r="E11">
-        <v>-0.18</v>
+        <v>0.449</v>
       </c>
       <c r="G11">
-        <v>0.008685626441199077</v>
+        <v>0.4316239316239316</v>
       </c>
       <c r="H11">
-        <v>0.008685626441199077</v>
+        <v>0.4316239316239316</v>
       </c>
       <c r="I11">
-        <v>0.006633358954650269</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="J11">
-        <v>0.006633358954650269</v>
+        <v>0.5144444444444445</v>
       </c>
       <c r="K11">
-        <v>1.18</v>
+        <v>12</v>
       </c>
       <c r="L11">
-        <v>0.009069946195234435</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1758,55 +1767,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>18.6</v>
+        <v>9.51</v>
       </c>
       <c r="V11">
-        <v>0.1856287425149701</v>
+        <v>0.04029661016949152</v>
       </c>
       <c r="W11">
-        <v>0.03163538873994638</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="X11">
-        <v>0.05125733999132803</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y11">
-        <v>-0.01962195125138165</v>
+        <v>0.06119401086174606</v>
       </c>
       <c r="Z11">
-        <v>14.61797752808989</v>
+        <v>0.2172500232104726</v>
       </c>
       <c r="AA11">
-        <v>0.09696629213483147</v>
+        <v>0.1117630674960542</v>
       </c>
       <c r="AB11">
-        <v>0.05079706626692283</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC11">
-        <v>0.04616922586790865</v>
+        <v>0.06676238809231357</v>
       </c>
       <c r="AD11">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>-16.64</v>
+        <v>-9.51</v>
       </c>
       <c r="AH11">
-        <v>0.01918559122944401</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.04929577464788733</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-0.1991383437051221</v>
+        <v>-0.04198860876859905</v>
       </c>
       <c r="AK11">
-        <v>-0.786389413988658</v>
+        <v>-0.08234479175686207</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1815,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>1.059459459459459</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>-8.994594594594595</v>
+        <v>-0.7608</v>
       </c>
     </row>
     <row r="12">
@@ -1829,7 +1838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Allianz Saudi Fransi Cooperative Insurance Company (SASE:8040)</t>
+          <t>Saudi Arabian Cooperative Insurance Company (SASE:8100)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1838,28 +1847,28 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0746</v>
+        <v>-0.0257</v>
       </c>
       <c r="E12">
-        <v>0.386</v>
+        <v>-0.0418</v>
       </c>
       <c r="G12">
-        <v>0.02668523676880223</v>
+        <v>0.002325728770595691</v>
       </c>
       <c r="H12">
-        <v>0.02668523676880223</v>
+        <v>0.002325728770595691</v>
       </c>
       <c r="I12">
-        <v>0.02105849582172702</v>
+        <v>0.04809885931558935</v>
       </c>
       <c r="J12">
-        <v>0.01877395438456866</v>
+        <v>0.03365019011406843</v>
       </c>
       <c r="K12">
-        <v>8.300000000000001</v>
+        <v>5.32</v>
       </c>
       <c r="L12">
-        <v>0.04623955431754875</v>
+        <v>0.03371356147021546</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1883,55 +1892,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>58.2</v>
+        <v>4.85</v>
       </c>
       <c r="V12">
-        <v>0.3913920645595159</v>
+        <v>0.0294474802671524</v>
       </c>
       <c r="W12">
-        <v>0.1162464985994398</v>
+        <v>0.06193247962747381</v>
       </c>
       <c r="X12">
-        <v>0.05102492075266619</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y12">
-        <v>0.06522157784677358</v>
+        <v>0.01693180022373314</v>
       </c>
       <c r="Z12">
-        <v>3.492217898832684</v>
+        <v>2.228813559322034</v>
       </c>
       <c r="AA12">
-        <v>0.06556273953365904</v>
+        <v>0.07499999999999998</v>
       </c>
       <c r="AB12">
-        <v>0.05083059441682638</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC12">
-        <v>0.01473214511683266</v>
+        <v>0.02999932059625932</v>
       </c>
       <c r="AD12">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>-56.66</v>
+        <v>-4.85</v>
       </c>
       <c r="AH12">
-        <v>0.01025026624068158</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.01783646050498031</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>-0.6156019122120818</v>
+        <v>-0.03034094463559587</v>
       </c>
       <c r="AK12">
-        <v>-2.013503909026298</v>
+        <v>-0.05584340817501438</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1940,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>-14.165</v>
+        <v>-0.5587557603686636</v>
       </c>
     </row>
     <row r="13">
@@ -1954,7 +1963,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Saudi Arabian Cooperative Insurance Company (SASE:8100)</t>
+          <t>Allied Cooperative Insurance Group (SASE:8150)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1963,28 +1972,28 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.08960000000000001</v>
+        <v>0.0568</v>
       </c>
       <c r="E13">
-        <v>-0.158</v>
+        <v>-0.168</v>
       </c>
       <c r="G13">
-        <v>-0.01240681576144835</v>
+        <v>0.02083682008368201</v>
       </c>
       <c r="H13">
-        <v>-0.01240681576144835</v>
+        <v>0.02083682008368201</v>
       </c>
       <c r="I13">
-        <v>0.003785942492012779</v>
+        <v>0.02343096234309623</v>
       </c>
       <c r="J13">
-        <v>0.003785942492012779</v>
+        <v>0.01171548117154812</v>
       </c>
       <c r="K13">
-        <v>0.88</v>
+        <v>1.37</v>
       </c>
       <c r="L13">
-        <v>0.004685835995740148</v>
+        <v>0.01146443514644352</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2008,55 +2017,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>15.1</v>
+        <v>76.7</v>
       </c>
       <c r="V13">
-        <v>0.1579497907949791</v>
+        <v>0.325</v>
       </c>
       <c r="W13">
-        <v>0.01006864988558352</v>
+        <v>0.03624338624338625</v>
       </c>
       <c r="X13">
-        <v>0.05076341352027228</v>
+        <v>0.04516526558675453</v>
       </c>
       <c r="Y13">
-        <v>-0.04069476363468875</v>
+        <v>-0.008921879343368279</v>
       </c>
       <c r="Z13">
-        <v>10.79310344827586</v>
+        <v>5.647448015122874</v>
       </c>
       <c r="AA13">
-        <v>0.04086206896551722</v>
+        <v>0.06616257088846882</v>
       </c>
       <c r="AB13">
-        <v>0.05076341352027228</v>
+        <v>0.04502299496012967</v>
       </c>
       <c r="AC13">
-        <v>-0.009901344554755054</v>
+        <v>0.02113957592833914</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG13">
-        <v>-15.1</v>
+        <v>-75.34</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.005729693292888439</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.03248924988055423</v>
       </c>
       <c r="AJ13">
-        <v>-0.1875776397515528</v>
+        <v>-0.4689406199427362</v>
       </c>
       <c r="AK13">
-        <v>-0.213276836158192</v>
+        <v>2.162456946039035</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2065,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>0.4488448844884489</v>
       </c>
       <c r="AP13">
-        <v>-8.628571428571428</v>
+        <v>-24.86468646864687</v>
       </c>
     </row>
     <row r="14">
@@ -2079,7 +2088,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AlAhli Takaful Company (SASE:8130)</t>
+          <t>Amana Cooperative Insurance Company (SASE:8310)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2088,25 +2097,25 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.0146</v>
+        <v>-0.0457</v>
       </c>
       <c r="G14">
-        <v>0.1666666666666667</v>
+        <v>-0.1016058394160584</v>
       </c>
       <c r="H14">
-        <v>0.1666666666666667</v>
+        <v>-0.1016058394160584</v>
       </c>
       <c r="I14">
-        <v>0.0001111111111111111</v>
+        <v>0.01445255474452555</v>
       </c>
       <c r="J14">
-        <v>5.555555555555556e-05</v>
+        <v>0.01445255474452555</v>
       </c>
       <c r="K14">
-        <v>-0.027</v>
+        <v>3.34</v>
       </c>
       <c r="L14">
-        <v>-0.0015</v>
+        <v>0.04875912408759124</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2115,7 +2124,7 @@
         <v>-0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2124,37 +2133,37 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>6.79</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>0.06051693404634581</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-0.0004097116843702579</v>
+        <v>0.07643020594965674</v>
       </c>
       <c r="X14">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y14">
-        <v>-0.05117312520464253</v>
+        <v>0.03142952654591608</v>
       </c>
       <c r="Z14">
-        <v>0.30441400304414</v>
+        <v>1.807864871997889</v>
       </c>
       <c r="AA14">
-        <v>1.691188905800778e-05</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="AB14">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC14">
-        <v>-0.05074650163121427</v>
+        <v>-0.01887241337048651</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2166,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>-6.79</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2175,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>-0.06441514087847452</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>-0.1184784505321933</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2190,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>-29.52173913043478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2201,7 +2210,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Walaa Cooperative Insurance Company (SASE:8060)</t>
+          <t>AlAhli Takaful Company (SASE:8130)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2210,103 +2219,100 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.205</v>
+        <v>-0.0582</v>
       </c>
       <c r="E15">
-        <v>-0.08</v>
+        <v>-0.371</v>
       </c>
       <c r="G15">
-        <v>0.1380857427716849</v>
+        <v>0.2323353293413174</v>
       </c>
       <c r="H15">
-        <v>0.1380857427716849</v>
+        <v>0.2323353293413174</v>
       </c>
       <c r="I15">
-        <v>0.01864406779661017</v>
+        <v>0.1574850299401198</v>
       </c>
       <c r="J15">
-        <v>0.01864406779661017</v>
+        <v>0.07874251497005988</v>
       </c>
       <c r="K15">
-        <v>4.63</v>
+        <v>1.02</v>
       </c>
       <c r="L15">
-        <v>0.02308075772681954</v>
+        <v>0.06107784431137725</v>
       </c>
       <c r="M15">
-        <v>11.7</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.04976605699702254</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>2.526997840172786</v>
+        <v>-0</v>
       </c>
       <c r="P15">
-        <v>11.7</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.04976605699702254</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>2.526997840172786</v>
+        <v>-0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>124.5</v>
+        <v>5.77</v>
       </c>
       <c r="V15">
-        <v>0.5295618885580604</v>
+        <v>0.0372258064516129</v>
       </c>
       <c r="W15">
-        <v>0.02604049493813273</v>
+        <v>0.01591263650546022</v>
       </c>
       <c r="X15">
-        <v>0.05093096409480778</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y15">
-        <v>-0.02489046915667505</v>
+        <v>-0.02908804289828045</v>
       </c>
       <c r="Z15">
-        <v>-1.684298908480269</v>
+        <v>0.2913976618391206</v>
       </c>
       <c r="AA15">
-        <v>-0.03140218303946265</v>
+        <v>0.0229453847496074</v>
       </c>
       <c r="AB15">
-        <v>0.05077497584246315</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC15">
-        <v>-0.0821771588819258</v>
+        <v>-0.02205529465413327</v>
       </c>
       <c r="AD15">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>-122.94</v>
+        <v>-5.77</v>
       </c>
       <c r="AH15">
-        <v>0.006591734978450097</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>0.009103641456582632</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>-1.09611269614836</v>
+        <v>-0.0386651477584936</v>
       </c>
       <c r="AK15">
-        <v>-2.623559539052496</v>
+        <v>-0.0972526546435193</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2315,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0.3340471092077088</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>-26.3254817987152</v>
+        <v>-2.03886925795053</v>
       </c>
     </row>
     <row r="16">
@@ -2329,7 +2335,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SABB Takaful Company (SASE:8080)</t>
+          <t>Arabia Insurance Cooperative Company (SASE:8160)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2338,25 +2344,25 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.125</v>
+        <v>-0.105</v>
       </c>
       <c r="G16">
-        <v>0.01382789317507418</v>
+        <v>-0.1467692307692308</v>
       </c>
       <c r="H16">
-        <v>0.01382789317507418</v>
+        <v>-0.1467692307692308</v>
       </c>
       <c r="I16">
-        <v>-0.02540059347181009</v>
+        <v>0.02569230769230769</v>
       </c>
       <c r="J16">
-        <v>-0.02540059347181009</v>
+        <v>0.01284615384615385</v>
       </c>
       <c r="K16">
-        <v>-0.782</v>
+        <v>0.52</v>
       </c>
       <c r="L16">
-        <v>-0.02320474777448071</v>
+        <v>0.008</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2365,7 +2371,7 @@
         <v>-0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P16">
         <v>-0</v>
@@ -2374,37 +2380,37 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>71.90000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="V16">
-        <v>0.4809364548494984</v>
+        <v>0.2338830584707646</v>
       </c>
       <c r="W16">
-        <v>-0.008509249183895538</v>
+        <v>0.008768971332209106</v>
       </c>
       <c r="X16">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y16">
-        <v>-0.05927266270416781</v>
+        <v>-0.03623170807153156</v>
       </c>
       <c r="Z16">
-        <v>1.276515151515151</v>
+        <v>1.673532440782698</v>
       </c>
       <c r="AA16">
-        <v>-0.03242424242424242</v>
+        <v>0.02149845520082389</v>
       </c>
       <c r="AB16">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC16">
-        <v>-0.08318765594451469</v>
+        <v>-0.02350222420291678</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2416,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>-71.90000000000001</v>
+        <v>-31.2</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2425,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>-0.9265463917525775</v>
+        <v>-0.3052837573385518</v>
       </c>
       <c r="AK16">
-        <v>-4.15606936416185</v>
+        <v>-1.122302158273381</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2437,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>115.5948553054663</v>
+        <v>-13.92857142857143</v>
       </c>
     </row>
     <row r="17">
@@ -2451,7 +2457,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Company for Cooperative Insurance (SASE:8010)</t>
+          <t>Alinma Tokio Marine Company (SASE:8312)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2460,100 +2466,97 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0703</v>
+        <v>0.264</v>
       </c>
       <c r="G17">
-        <v>-0.02538413621262458</v>
+        <v>-0.1641237113402062</v>
       </c>
       <c r="H17">
-        <v>-0.02538413621262458</v>
+        <v>-0.1641237113402062</v>
       </c>
       <c r="I17">
-        <v>-0.006229235880398671</v>
+        <v>-0.03351522287258375</v>
       </c>
       <c r="J17">
-        <v>-0.006229235880398671</v>
+        <v>-0.03351522287258375</v>
       </c>
       <c r="K17">
-        <v>-31.9</v>
+        <v>-2.58</v>
       </c>
       <c r="L17">
-        <v>-0.0165593853820598</v>
+        <v>-0.05319587628865979</v>
       </c>
       <c r="M17">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="N17">
-        <v>3.912669222943892e-07</v>
+        <v>-0</v>
       </c>
       <c r="O17">
-        <v>-3.134796238244514e-05</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="Q17">
-        <v>3.912669222943892e-07</v>
+        <v>-0</v>
       </c>
       <c r="R17">
-        <v>-3.134796238244514e-05</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
-        <v>417</v>
+        <v>45.1</v>
       </c>
       <c r="V17">
-        <v>0.1631583065967603</v>
+        <v>0.2312820512820513</v>
       </c>
       <c r="W17">
-        <v>-0.05533391153512576</v>
+        <v>-0.04448275862068966</v>
       </c>
       <c r="X17">
-        <v>0.05076341352027228</v>
+        <v>0.04519949616462084</v>
       </c>
       <c r="Y17">
-        <v>-0.106097325055398</v>
+        <v>-0.0896822547853105</v>
       </c>
       <c r="Z17">
-        <v>5.864231354642314</v>
+        <v>1.019604973971216</v>
       </c>
       <c r="AA17">
-        <v>-0.0365296803652968</v>
+        <v>-0.03417228794464024</v>
       </c>
       <c r="AB17">
-        <v>0.05076341352027228</v>
+        <v>0.04506410530331675</v>
       </c>
       <c r="AC17">
-        <v>-0.08729309388556908</v>
+        <v>-0.07923639324795699</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>0.01744154660155876</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.357441546601559</v>
       </c>
       <c r="AG17">
-        <v>-417</v>
+        <v>-43.74255845339844</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>0.006913114857831333</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>0.02387447464531043</v>
       </c>
       <c r="AJ17">
-        <v>-0.1949691415747148</v>
+        <v>-0.2891927696656274</v>
       </c>
       <c r="AK17">
-        <v>-2.044117647058823</v>
+        <v>-3.720414707572335</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2562,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>-0</v>
+        <v>-2.712550607287449</v>
       </c>
       <c r="AP17">
-        <v>90.25974025974025</v>
+        <v>88.54768917691993</v>
       </c>
     </row>
     <row r="18">
@@ -2576,7 +2579,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gulf Union Cooperative Insurance Co. (SASE:8120)</t>
+          <t>Allianz Saudi Fransi Cooperative Insurance Company (SASE:8040)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2585,25 +2588,25 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0298</v>
+        <v>0.0868</v>
       </c>
       <c r="G18">
-        <v>0.02571785268414482</v>
+        <v>0.0318125</v>
       </c>
       <c r="H18">
-        <v>0.02571785268414482</v>
+        <v>0.0318125</v>
       </c>
       <c r="I18">
-        <v>-0.02759051186017478</v>
+        <v>-0.0365625</v>
       </c>
       <c r="J18">
-        <v>-0.02759051186017478</v>
+        <v>-0.01828125</v>
       </c>
       <c r="K18">
-        <v>-2.04</v>
+        <v>-1.8</v>
       </c>
       <c r="L18">
-        <v>-0.02546816479400749</v>
+        <v>-0.01125</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2627,55 +2630,55 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>19.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="V18">
-        <v>0.3837209302325582</v>
+        <v>0.2268096514745308</v>
       </c>
       <c r="W18">
-        <v>-0.04987775061124695</v>
+        <v>-0.02122641509433962</v>
       </c>
       <c r="X18">
-        <v>0.05136042692329137</v>
+        <v>0.04507801492373591</v>
       </c>
       <c r="Y18">
-        <v>-0.1012381775345383</v>
+        <v>-0.06630443001807554</v>
       </c>
       <c r="Z18">
-        <v>2.053846153846154</v>
+        <v>5.685856432125089</v>
       </c>
       <c r="AA18">
-        <v>-0.05666666666666666</v>
+        <v>-0.1039445628997868</v>
       </c>
       <c r="AB18">
-        <v>0.05080392767316486</v>
+        <v>0.0450254553940593</v>
       </c>
       <c r="AC18">
-        <v>-0.1074705943398315</v>
+        <v>-0.1489700182938461</v>
       </c>
       <c r="AD18">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AG18">
-        <v>-18.58</v>
+        <v>-83.58999999999999</v>
       </c>
       <c r="AH18">
-        <v>0.0230973116243847</v>
+        <v>0.002700462554477153</v>
       </c>
       <c r="AI18">
-        <v>0.03134635149023638</v>
+        <v>0.005203235278965535</v>
       </c>
       <c r="AJ18">
-        <v>-0.5626892792247125</v>
+        <v>-0.2888289969247779</v>
       </c>
       <c r="AK18">
-        <v>-0.9717573221757323</v>
+        <v>-0.763309286823121</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2684,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>-0.7176470588235294</v>
+        <v>-0.2091097308488613</v>
       </c>
       <c r="AP18">
-        <v>10.92941176470588</v>
+        <v>17.30641821946169</v>
       </c>
     </row>
     <row r="19">
@@ -2698,7 +2701,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Arabia Insurance Cooperative Company (SASE:8160)</t>
+          <t>Gulf General Cooperative Insurance Company (SASE:8260)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2707,25 +2710,28 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.103</v>
+        <v>0.0408</v>
+      </c>
+      <c r="E19">
+        <v>0.0173</v>
       </c>
       <c r="G19">
-        <v>0.02027439024390244</v>
+        <v>-0.009201877934272301</v>
       </c>
       <c r="H19">
-        <v>0.02027439024390244</v>
+        <v>-0.009201877934272301</v>
       </c>
       <c r="I19">
-        <v>-0.149390243902439</v>
+        <v>0.01034428794992175</v>
       </c>
       <c r="J19">
-        <v>-0.149390243902439</v>
+        <v>0.01034428794992175</v>
       </c>
       <c r="K19">
-        <v>-9.609999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="L19">
-        <v>-0.1464939024390244</v>
+        <v>0.02206572769953052</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2734,7 +2740,7 @@
         <v>-0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P19">
         <v>-0</v>
@@ -2743,61 +2749,61 @@
         <v>-0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>22.3</v>
+        <v>45.6</v>
       </c>
       <c r="V19">
-        <v>0.1781150159744409</v>
+        <v>0.3441509433962264</v>
       </c>
       <c r="W19">
-        <v>-0.1423703703703704</v>
+        <v>0.03190045248868778</v>
       </c>
       <c r="X19">
-        <v>0.05076341352027228</v>
+        <v>0.04515372080676953</v>
       </c>
       <c r="Y19">
-        <v>-0.1931337838906426</v>
+        <v>-0.01325326831808175</v>
       </c>
       <c r="Z19">
-        <v>1.660759493670886</v>
+        <v>-10.19138755980862</v>
       </c>
       <c r="AA19">
-        <v>-0.2481012658227848</v>
+        <v>-0.1054226475279108</v>
       </c>
       <c r="AB19">
-        <v>0.05076341352027228</v>
+        <v>0.04502143799438807</v>
       </c>
       <c r="AC19">
-        <v>-0.2988646793430571</v>
+        <v>-0.1504440855222989</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AG19">
-        <v>-22.3</v>
+        <v>-44.89</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>0.005329930185421514</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.01533146188728136</v>
       </c>
       <c r="AJ19">
-        <v>-0.216715257531584</v>
+        <v>-0.5123844310010273</v>
       </c>
       <c r="AK19">
-        <v>-0.6027027027027028</v>
+        <v>-63.22535211267598</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2806,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>-0</v>
+        <v>0.5419847328244274</v>
       </c>
       <c r="AP19">
-        <v>2.405609492988134</v>
+        <v>-34.26717557251909</v>
       </c>
     </row>
     <row r="20">
@@ -2820,7 +2826,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gulf General Cooperative Insurance Company (SASE:8260)</t>
+          <t>Gulf Union Alahlia Cooperative Insurance Company (SASE:8120)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2829,25 +2835,25 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.0358</v>
+        <v>0.219</v>
       </c>
       <c r="G20">
-        <v>-0.1249492900608519</v>
+        <v>-0.06059190031152648</v>
       </c>
       <c r="H20">
-        <v>-0.1249492900608519</v>
+        <v>-0.06059190031152648</v>
       </c>
       <c r="I20">
-        <v>-0.04807302231237323</v>
+        <v>-0.01954828660436137</v>
       </c>
       <c r="J20">
-        <v>-0.04807302231237323</v>
+        <v>-0.01954828660436137</v>
       </c>
       <c r="K20">
-        <v>-2.11</v>
+        <v>-2.43</v>
       </c>
       <c r="L20">
-        <v>-0.04279918864097363</v>
+        <v>-0.01892523364485981</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2871,67 +2877,73 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>40.8</v>
+        <v>36.1</v>
       </c>
       <c r="V20">
-        <v>0.6219512195121951</v>
+        <v>0.2892628205128205</v>
       </c>
       <c r="W20">
-        <v>-0.04254032258064516</v>
+        <v>-0.06445623342175066</v>
       </c>
       <c r="X20">
-        <v>0.05076341352027228</v>
+        <v>0.04537370573340796</v>
       </c>
       <c r="Y20">
-        <v>-0.09330373610091744</v>
+        <v>-0.1098299391551586</v>
       </c>
       <c r="Z20">
-        <v>6.216897856242117</v>
+        <v>6.715481171548118</v>
       </c>
       <c r="AA20">
-        <v>-0.2988650693568726</v>
+        <v>-0.1312761506276151</v>
       </c>
       <c r="AB20">
-        <v>0.05076341352027228</v>
+        <v>0.04505089213106435</v>
       </c>
       <c r="AC20">
-        <v>-0.3496284828771449</v>
+        <v>-0.1763270427586794</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG20">
-        <v>-40.8</v>
+        <v>-34.47</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>0.01289250968915606</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.04165601840020444</v>
       </c>
       <c r="AJ20">
-        <v>-1.645161290322581</v>
+        <v>-0.3816007970773829</v>
       </c>
       <c r="AK20">
-        <v>-11.99999999999998</v>
+        <v>-11.37623762376237</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AN20">
-        <v>-0</v>
+        <v>-0.8149999999999999</v>
+      </c>
+      <c r="AO20">
+        <v>-34.86111111111111</v>
       </c>
       <c r="AP20">
-        <v>23.05084745762712</v>
+        <v>17.235</v>
+      </c>
+      <c r="AQ20">
+        <v>-34.86111111111111</v>
       </c>
     </row>
     <row r="21">
@@ -2942,7 +2954,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alinma Tokio Marine Company (SASE:8312)</t>
+          <t>Solidarity Saudi Takaful Company (SASE:8290)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2951,25 +2963,25 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.444</v>
+        <v>0.227</v>
       </c>
       <c r="G21">
-        <v>-0.1370766488413547</v>
+        <v>-0.1001855287569573</v>
       </c>
       <c r="H21">
-        <v>-0.1370766488413547</v>
+        <v>-0.1001855287569573</v>
       </c>
       <c r="I21">
-        <v>-0.1800356506238859</v>
+        <v>-0.05584415584415584</v>
       </c>
       <c r="J21">
-        <v>-0.1800356506238859</v>
+        <v>-0.05584415584415584</v>
       </c>
       <c r="K21">
-        <v>-9.85</v>
+        <v>-6.52</v>
       </c>
       <c r="L21">
-        <v>-0.1755793226381462</v>
+        <v>-0.06048237476808905</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2993,55 +3005,55 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>12</v>
+        <v>55.7</v>
       </c>
       <c r="V21">
-        <v>0.1202404809619239</v>
+        <v>0.4712351945854484</v>
       </c>
       <c r="W21">
-        <v>-0.1419308357348703</v>
+        <v>-0.1162210338680927</v>
       </c>
       <c r="X21">
-        <v>0.05115558418926162</v>
+        <v>0.04555159344124002</v>
       </c>
       <c r="Y21">
-        <v>-0.1930864199241319</v>
+        <v>-0.1617726273093327</v>
       </c>
       <c r="Z21">
-        <v>1.901694915254237</v>
+        <v>3.601737387236886</v>
       </c>
       <c r="AA21">
-        <v>-0.3423728813559321</v>
+        <v>-0.2011359839625793</v>
       </c>
       <c r="AB21">
-        <v>0.0507902393568188</v>
+        <v>0.04507438428189377</v>
       </c>
       <c r="AC21">
-        <v>-0.3931631207127509</v>
+        <v>-0.2462103682444731</v>
       </c>
       <c r="AD21">
-        <v>1.55</v>
+        <v>2.28</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>1.55</v>
+        <v>2.28</v>
       </c>
       <c r="AG21">
-        <v>-10.45</v>
+        <v>-53.42</v>
       </c>
       <c r="AH21">
-        <v>0.0152935372471633</v>
+        <v>0.01892430278884462</v>
       </c>
       <c r="AI21">
-        <v>0.02602854743912679</v>
+        <v>0.04328018223234624</v>
       </c>
       <c r="AJ21">
-        <v>-0.1169557918298825</v>
+        <v>-0.8246372337141094</v>
       </c>
       <c r="AK21">
-        <v>-0.2197686645636172</v>
+        <v>17.68874172185429</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3050,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>-0.1708930540242558</v>
+        <v>-0.4662576687116564</v>
       </c>
       <c r="AP21">
-        <v>1.152149944873208</v>
+        <v>10.92433537832311</v>
       </c>
     </row>
     <row r="22">
@@ -3064,7 +3076,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Al Sagr Cooperative Insurance Co. (SASE:8180)</t>
+          <t>Wataniya Insurance Company (SASE:8300)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3073,76 +3085,76 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.13</v>
+        <v>0.122</v>
+      </c>
+      <c r="E22">
+        <v>0.173</v>
       </c>
       <c r="G22">
-        <v>0.005466804979253112</v>
+        <v>0.05654242664551943</v>
       </c>
       <c r="H22">
-        <v>0.005466804979253112</v>
+        <v>0.05654242664551943</v>
       </c>
       <c r="I22">
-        <v>-0.1390041493775934</v>
+        <v>0.08088818398096749</v>
       </c>
       <c r="J22">
-        <v>-0.1390041493775934</v>
+        <v>0.06399682791435368</v>
       </c>
       <c r="K22">
-        <v>-15.6</v>
+        <v>8.07</v>
       </c>
       <c r="L22">
-        <v>-0.1618257261410788</v>
+        <v>0.0639968279143537</v>
       </c>
       <c r="M22">
-        <v>4.73</v>
+        <v>-0</v>
       </c>
       <c r="N22">
-        <v>0.044</v>
+        <v>-0</v>
       </c>
       <c r="O22">
-        <v>-0.3032051282051282</v>
+        <v>-0</v>
       </c>
       <c r="P22">
-        <v>4.73</v>
+        <v>-0</v>
       </c>
       <c r="Q22">
-        <v>0.044</v>
+        <v>-0</v>
       </c>
       <c r="R22">
-        <v>-0.3032051282051282</v>
+        <v>-0</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
-        <v>74.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="V22">
-        <v>0.6967441860465117</v>
+        <v>0.3507340946166395</v>
       </c>
       <c r="W22">
-        <v>-0.1273469387755102</v>
+        <v>0.1360876897133221</v>
       </c>
       <c r="X22">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y22">
-        <v>-0.1781103522957825</v>
+        <v>0.09108701030958144</v>
       </c>
       <c r="Z22">
-        <v>3.050632911392405</v>
+        <v>-4.289115646258503</v>
       </c>
       <c r="AA22">
-        <v>-0.4240506329113923</v>
+        <v>-0.2744897959183673</v>
       </c>
       <c r="AB22">
-        <v>0.05076341352027228</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC22">
-        <v>-0.4748140464316646</v>
+        <v>-0.3194904753221079</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3154,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>-74.90000000000001</v>
+        <v>-86</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3163,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>-2.297546012269939</v>
+        <v>-0.5402010050251257</v>
       </c>
       <c r="AK22">
-        <v>-2.32608695652174</v>
+        <v>4.648648648648648</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3175,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>5.717557251908397</v>
+        <v>-7.478260869565218</v>
       </c>
     </row>
     <row r="23">
@@ -3189,7 +3201,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Salama Cooperative Insurance Company (SASE:8050)</t>
+          <t>SABB Takaful Company (SASE:8080)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3198,25 +3210,25 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.199</v>
+        <v>-0.0449</v>
       </c>
       <c r="G23">
-        <v>0.03303684879288437</v>
+        <v>-0.1348189415041783</v>
       </c>
       <c r="H23">
-        <v>0.03303684879288437</v>
+        <v>-0.1348189415041783</v>
       </c>
       <c r="I23">
-        <v>-0.1188055908513342</v>
+        <v>-0.2225626740947075</v>
       </c>
       <c r="J23">
-        <v>-0.1188055908513342</v>
+        <v>-0.2225626740947075</v>
       </c>
       <c r="K23">
-        <v>-18.7</v>
+        <v>-9.41</v>
       </c>
       <c r="L23">
-        <v>-0.1188055908513342</v>
+        <v>-0.262116991643454</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3240,55 +3252,55 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>27.3</v>
+        <v>55.4</v>
       </c>
       <c r="V23">
-        <v>0.34125</v>
+        <v>0.1994240460763139</v>
       </c>
       <c r="W23">
-        <v>-0.2597222222222222</v>
+        <v>-0.1054932735426009</v>
       </c>
       <c r="X23">
-        <v>0.05304544831778796</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="Y23">
-        <v>-0.3127676705400101</v>
+        <v>-0.1504939529463415</v>
       </c>
       <c r="Z23">
-        <v>3.783653846153846</v>
+        <v>2.075144508670521</v>
       </c>
       <c r="AA23">
-        <v>-0.4495192307692307</v>
+        <v>-0.461849710982659</v>
       </c>
       <c r="AB23">
-        <v>0.05130664268011852</v>
+        <v>0.04500067940374067</v>
       </c>
       <c r="AC23">
-        <v>-0.5008258734493493</v>
+        <v>-0.5068503903863997</v>
       </c>
       <c r="AD23">
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>-20.07</v>
+        <v>-55.4</v>
       </c>
       <c r="AH23">
-        <v>0.08288432878596813</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.1220665203444201</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>-0.3348907058234607</v>
+        <v>-0.2491007194244604</v>
       </c>
       <c r="AK23">
-        <v>-0.6285624804259318</v>
+        <v>-2.252032520325203</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3297,254 +3309,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>-0.4203488372093024</v>
+        <v>-0</v>
       </c>
       <c r="AP23">
-        <v>1.166860465116279</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Solidarity Saudi Takaful Company (SASE:8290)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>0.0524</v>
-      </c>
-      <c r="G24">
-        <v>-0.2524590163934426</v>
-      </c>
-      <c r="H24">
-        <v>-0.2524590163934426</v>
-      </c>
-      <c r="I24">
-        <v>-0.4573770491803278</v>
-      </c>
-      <c r="J24">
-        <v>-0.4573770491803278</v>
-      </c>
-      <c r="K24">
-        <v>-28.9</v>
-      </c>
-      <c r="L24">
-        <v>-0.4737704918032787</v>
-      </c>
-      <c r="M24">
-        <v>-0</v>
-      </c>
-      <c r="N24">
-        <v>-0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>-0</v>
-      </c>
-      <c r="Q24">
-        <v>-0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>28.9</v>
-      </c>
-      <c r="V24">
-        <v>0.3498789346246973</v>
-      </c>
-      <c r="W24">
-        <v>-0.366751269035533</v>
-      </c>
-      <c r="X24">
-        <v>0.05159797157267269</v>
-      </c>
-      <c r="Y24">
-        <v>-0.4183492406082057</v>
-      </c>
-      <c r="Z24">
-        <v>1.592689295039165</v>
-      </c>
-      <c r="AA24">
-        <v>-0.7284595300261096</v>
-      </c>
-      <c r="AB24">
-        <v>0.05081953204303055</v>
-      </c>
-      <c r="AC24">
-        <v>-0.7792790620691402</v>
-      </c>
-      <c r="AD24">
-        <v>2.73</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>2.73</v>
-      </c>
-      <c r="AG24">
-        <v>-26.17</v>
-      </c>
-      <c r="AH24">
-        <v>0.03199343724364233</v>
-      </c>
-      <c r="AI24">
-        <v>0.04640489546149924</v>
-      </c>
-      <c r="AJ24">
-        <v>-0.4637604111288322</v>
-      </c>
-      <c r="AK24">
-        <v>-0.8743735382559303</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>-0.09963503649635037</v>
-      </c>
-      <c r="AP24">
-        <v>0.9551094890510948</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Amana Cooperative Insurance Company (SASE:8310)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>0.00756</v>
-      </c>
-      <c r="G25">
-        <v>-0.112962962962963</v>
-      </c>
-      <c r="H25">
-        <v>-0.112962962962963</v>
-      </c>
-      <c r="I25">
-        <v>-0.1888888888888889</v>
-      </c>
-      <c r="J25">
-        <v>-0.1888888888888889</v>
-      </c>
-      <c r="K25">
-        <v>-10.7</v>
-      </c>
-      <c r="L25">
-        <v>-0.2476851851851851</v>
-      </c>
-      <c r="M25">
-        <v>-0</v>
-      </c>
-      <c r="N25">
-        <v>-0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>-0</v>
-      </c>
-      <c r="Q25">
-        <v>-0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>5.81</v>
-      </c>
-      <c r="V25">
-        <v>0.07525906735751295</v>
-      </c>
-      <c r="W25">
-        <v>-0.3848920863309352</v>
-      </c>
-      <c r="X25">
-        <v>0.05076341352027228</v>
-      </c>
-      <c r="Y25">
-        <v>-0.4356554998512074</v>
-      </c>
-      <c r="Z25">
-        <v>10.28571428571429</v>
-      </c>
-      <c r="AA25">
-        <v>-1.942857142857143</v>
-      </c>
-      <c r="AB25">
-        <v>0.05076341352027228</v>
-      </c>
-      <c r="AC25">
-        <v>-1.993620556377416</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>-5.81</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>-0.08138394733155904</v>
-      </c>
-      <c r="AK25">
-        <v>-0.1533386117709158</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>-0</v>
-      </c>
-      <c r="AP25">
-        <v>0.7506459948320413</v>
+        <v>7.139175257731959</v>
       </c>
     </row>
   </sheetData>
